--- a/contratos/contratos-4-2015.xlsx
+++ b/contratos/contratos-4-2015.xlsx
@@ -862,7 +862,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
@@ -871,7 +871,7 @@
     <t>JOANNAS ROBERTO ABEL</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>CAMBIASSO LEANDRO</t>
@@ -940,7 +940,7 @@
     <t>NAUTICA COOK S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -1063,7 +1063,7 @@
     <t>LUGRIN ROBERTO DANIEL</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>GIORGI EDUARDO DANIEL</t>
@@ -1390,7 +1390,7 @@
     <t>DIARIO UNO</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>RADIO LA KE BUENA</t>
@@ -1579,712 +1579,712 @@
     <t>120</t>
   </si>
   <si>
-    <t>6.035,00</t>
-  </si>
-  <si>
-    <t>175.000,00</t>
-  </si>
-  <si>
-    <t>180.000,00</t>
-  </si>
-  <si>
-    <t>1.049,40</t>
-  </si>
-  <si>
-    <t>421.273,43</t>
-  </si>
-  <si>
-    <t>17.424,00</t>
-  </si>
-  <si>
-    <t>365.311,10</t>
-  </si>
-  <si>
-    <t>4.555,00</t>
-  </si>
-  <si>
-    <t>3.612,00</t>
-  </si>
-  <si>
-    <t>3.210,00</t>
-  </si>
-  <si>
-    <t>433.089,27</t>
-  </si>
-  <si>
-    <t>83.600,20</t>
-  </si>
-  <si>
-    <t>105.894,11</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>8.097,00</t>
-  </si>
-  <si>
-    <t>1.774,59</t>
-  </si>
-  <si>
-    <t>13.534,73</t>
-  </si>
-  <si>
-    <t>14.045,95</t>
-  </si>
-  <si>
-    <t>3.751,00</t>
-  </si>
-  <si>
-    <t>26.040,00</t>
-  </si>
-  <si>
-    <t>13.163,92</t>
-  </si>
-  <si>
-    <t>25.506,04</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>4.312,00</t>
-  </si>
-  <si>
-    <t>6.080,00</t>
-  </si>
-  <si>
-    <t>262,54</t>
-  </si>
-  <si>
-    <t>507,88</t>
-  </si>
-  <si>
-    <t>9.630,00</t>
-  </si>
-  <si>
-    <t>72.790,96</t>
-  </si>
-  <si>
-    <t>884,57</t>
-  </si>
-  <si>
-    <t>9.699,00</t>
-  </si>
-  <si>
-    <t>2.806,00</t>
-  </si>
-  <si>
-    <t>113.632,36</t>
-  </si>
-  <si>
-    <t>882,80</t>
-  </si>
-  <si>
-    <t>3.279.493,80</t>
-  </si>
-  <si>
-    <t>31.514,00</t>
-  </si>
-  <si>
-    <t>833,28</t>
-  </si>
-  <si>
-    <t>5.299,00</t>
-  </si>
-  <si>
-    <t>2.582,81</t>
-  </si>
-  <si>
-    <t>45.428,00</t>
-  </si>
-  <si>
-    <t>51.250,57</t>
-  </si>
-  <si>
-    <t>2.910,00</t>
-  </si>
-  <si>
-    <t>894,80</t>
-  </si>
-  <si>
-    <t>510,00</t>
-  </si>
-  <si>
-    <t>171.472,00</t>
-  </si>
-  <si>
-    <t>47,68</t>
-  </si>
-  <si>
-    <t>14.341,66</t>
-  </si>
-  <si>
-    <t>4.257,64</t>
-  </si>
-  <si>
-    <t>444,71</t>
-  </si>
-  <si>
-    <t>252,50</t>
-  </si>
-  <si>
-    <t>207.583,37</t>
-  </si>
-  <si>
-    <t>1.521,65</t>
-  </si>
-  <si>
-    <t>33.296,05</t>
-  </si>
-  <si>
-    <t>20.830,98</t>
-  </si>
-  <si>
-    <t>4.466,03</t>
-  </si>
-  <si>
-    <t>95,40</t>
-  </si>
-  <si>
-    <t>2.457,02</t>
-  </si>
-  <si>
-    <t>979,80</t>
-  </si>
-  <si>
-    <t>1.508,00</t>
-  </si>
-  <si>
-    <t>1.312,71</t>
-  </si>
-  <si>
-    <t>791,00</t>
-  </si>
-  <si>
-    <t>3.828,00</t>
-  </si>
-  <si>
-    <t>1.516,00</t>
-  </si>
-  <si>
-    <t>1.043,57</t>
-  </si>
-  <si>
-    <t>1.941,28</t>
-  </si>
-  <si>
-    <t>2.865,00</t>
-  </si>
-  <si>
-    <t>8.425,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>79,00</t>
-  </si>
-  <si>
-    <t>25.815,00</t>
-  </si>
-  <si>
-    <t>875,00</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>17.890,00</t>
-  </si>
-  <si>
-    <t>2.148,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>179,00</t>
-  </si>
-  <si>
-    <t>23.055,00</t>
-  </si>
-  <si>
-    <t>34.585,20</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>8.540,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>11.280,00</t>
-  </si>
-  <si>
-    <t>273.830,58</t>
-  </si>
-  <si>
-    <t>3.999,99</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>371.897,61</t>
-  </si>
-  <si>
-    <t>59.551,45</t>
-  </si>
-  <si>
-    <t>47,93</t>
-  </si>
-  <si>
-    <t>181,85</t>
-  </si>
-  <si>
-    <t>21.294,95</t>
-  </si>
-  <si>
-    <t>85,32</t>
-  </si>
-  <si>
-    <t>777,80</t>
-  </si>
-  <si>
-    <t>5.474,50</t>
-  </si>
-  <si>
-    <t>2.607,98</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>4.637,90</t>
-  </si>
-  <si>
-    <t>7.665,00</t>
-  </si>
-  <si>
-    <t>128,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>1.709,00</t>
-  </si>
-  <si>
-    <t>2.008,00</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>3.720,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>28.341,90</t>
-  </si>
-  <si>
-    <t>242,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>9.835,72</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>41,00</t>
-  </si>
-  <si>
-    <t>95,60</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>175,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>204.999,75</t>
-  </si>
-  <si>
-    <t>88.240,00</t>
-  </si>
-  <si>
-    <t>2.375,00</t>
-  </si>
-  <si>
-    <t>6.260,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>4.360,00</t>
-  </si>
-  <si>
-    <t>3.980,90</t>
-  </si>
-  <si>
-    <t>337.590,00</t>
-  </si>
-  <si>
-    <t>3.435,00</t>
-  </si>
-  <si>
-    <t>26.278,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>2.385,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>32.400,00</t>
-  </si>
-  <si>
-    <t>538,00</t>
-  </si>
-  <si>
-    <t>918,23</t>
-  </si>
-  <si>
-    <t>87,36</t>
-  </si>
-  <si>
-    <t>1.733,00</t>
-  </si>
-  <si>
-    <t>721,26</t>
-  </si>
-  <si>
-    <t>8.156,78</t>
-  </si>
-  <si>
-    <t>242,50</t>
-  </si>
-  <si>
-    <t>10.000,35</t>
-  </si>
-  <si>
-    <t>63,00</t>
-  </si>
-  <si>
-    <t>29.124,00</t>
-  </si>
-  <si>
-    <t>11.486,94</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>55.158,18</t>
-  </si>
-  <si>
-    <t>3.146,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>1.105,00</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>10.359,61</t>
-  </si>
-  <si>
-    <t>1.862,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>24.080,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>9.674,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>2.060,00</t>
-  </si>
-  <si>
-    <t>322,00</t>
-  </si>
-  <si>
-    <t>5.110,00</t>
-  </si>
-  <si>
-    <t>4.080,00</t>
-  </si>
-  <si>
-    <t>435,00</t>
-  </si>
-  <si>
-    <t>912,84</t>
-  </si>
-  <si>
-    <t>2.718,80</t>
-  </si>
-  <si>
-    <t>1.480,00</t>
-  </si>
-  <si>
-    <t>3.332,96</t>
-  </si>
-  <si>
-    <t>1.656,00</t>
-  </si>
-  <si>
-    <t>8.593,80</t>
-  </si>
-  <si>
-    <t>6.640,00</t>
-  </si>
-  <si>
-    <t>17.640,00</t>
-  </si>
-  <si>
-    <t>28,98</t>
-  </si>
-  <si>
-    <t>1.719,00</t>
-  </si>
-  <si>
-    <t>1.171,15</t>
-  </si>
-  <si>
-    <t>1.251,80</t>
-  </si>
-  <si>
-    <t>74.125,00</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>205.827,00</t>
-  </si>
-  <si>
-    <t>72.015,00</t>
-  </si>
-  <si>
-    <t>6.146,49</t>
-  </si>
-  <si>
-    <t>14.506,30</t>
-  </si>
-  <si>
-    <t>2.554,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>368.225,89</t>
-  </si>
-  <si>
-    <t>3.371,20</t>
-  </si>
-  <si>
-    <t>5.082,97</t>
-  </si>
-  <si>
-    <t>42.700,00</t>
-  </si>
-  <si>
-    <t>1.785,20</t>
-  </si>
-  <si>
-    <t>777.315,46</t>
-  </si>
-  <si>
-    <t>148.986,00</t>
-  </si>
-  <si>
-    <t>179.336,00</t>
-  </si>
-  <si>
-    <t>206.612,22</t>
-  </si>
-  <si>
-    <t>185.000,00</t>
-  </si>
-  <si>
-    <t>218.700,00</t>
-  </si>
-  <si>
-    <t>424.303,73</t>
-  </si>
-  <si>
-    <t>200.000,00</t>
-  </si>
-  <si>
-    <t>40.414,70</t>
-  </si>
-  <si>
-    <t>95.677,00</t>
-  </si>
-  <si>
-    <t>54.719,60</t>
-  </si>
-  <si>
-    <t>121.781,25</t>
-  </si>
-  <si>
-    <t>340.221,00</t>
-  </si>
-  <si>
-    <t>245.952,00</t>
-  </si>
-  <si>
-    <t>44.991,01</t>
-  </si>
-  <si>
-    <t>224.748,00</t>
-  </si>
-  <si>
-    <t>249.553,80</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>137.948,00</t>
-  </si>
-  <si>
-    <t>400.569,60</t>
-  </si>
-  <si>
-    <t>7.820.524,96</t>
-  </si>
-  <si>
-    <t>18.310,00</t>
-  </si>
-  <si>
-    <t>507.047,10</t>
-  </si>
-  <si>
-    <t>78.000,00</t>
-  </si>
-  <si>
-    <t>11.964,00</t>
-  </si>
-  <si>
-    <t>58.430,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>108.500,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>7.450,00</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>18.225,75</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>1.783,54</t>
-  </si>
-  <si>
-    <t>384.900,00</t>
-  </si>
-  <si>
-    <t>396,00</t>
-  </si>
-  <si>
-    <t>2.658,00</t>
+    <t>6035.00</t>
+  </si>
+  <si>
+    <t>175000.00</t>
+  </si>
+  <si>
+    <t>180000.00</t>
+  </si>
+  <si>
+    <t>1049.40</t>
+  </si>
+  <si>
+    <t>421273.43</t>
+  </si>
+  <si>
+    <t>17424.00</t>
+  </si>
+  <si>
+    <t>365311.10</t>
+  </si>
+  <si>
+    <t>4555.00</t>
+  </si>
+  <si>
+    <t>3612.00</t>
+  </si>
+  <si>
+    <t>3210.00</t>
+  </si>
+  <si>
+    <t>433089.27</t>
+  </si>
+  <si>
+    <t>83600.20</t>
+  </si>
+  <si>
+    <t>105894.11</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>8097.00</t>
+  </si>
+  <si>
+    <t>1774.59</t>
+  </si>
+  <si>
+    <t>13534.73</t>
+  </si>
+  <si>
+    <t>14045.95</t>
+  </si>
+  <si>
+    <t>3751.00</t>
+  </si>
+  <si>
+    <t>26040.00</t>
+  </si>
+  <si>
+    <t>13163.92</t>
+  </si>
+  <si>
+    <t>25506.04</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>4312.00</t>
+  </si>
+  <si>
+    <t>6080.00</t>
+  </si>
+  <si>
+    <t>262.54</t>
+  </si>
+  <si>
+    <t>507.88</t>
+  </si>
+  <si>
+    <t>9630.00</t>
+  </si>
+  <si>
+    <t>72790.96</t>
+  </si>
+  <si>
+    <t>884.57</t>
+  </si>
+  <si>
+    <t>9699.00</t>
+  </si>
+  <si>
+    <t>2806.00</t>
+  </si>
+  <si>
+    <t>113632.36</t>
+  </si>
+  <si>
+    <t>882.80</t>
+  </si>
+  <si>
+    <t>3279493.80</t>
+  </si>
+  <si>
+    <t>31514.00</t>
+  </si>
+  <si>
+    <t>833.28</t>
+  </si>
+  <si>
+    <t>5299.00</t>
+  </si>
+  <si>
+    <t>2582.81</t>
+  </si>
+  <si>
+    <t>45428.00</t>
+  </si>
+  <si>
+    <t>51250.57</t>
+  </si>
+  <si>
+    <t>2910.00</t>
+  </si>
+  <si>
+    <t>894.80</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>171472.00</t>
+  </si>
+  <si>
+    <t>47.68</t>
+  </si>
+  <si>
+    <t>14341.66</t>
+  </si>
+  <si>
+    <t>4257.64</t>
+  </si>
+  <si>
+    <t>444.71</t>
+  </si>
+  <si>
+    <t>252.50</t>
+  </si>
+  <si>
+    <t>207583.37</t>
+  </si>
+  <si>
+    <t>1521.65</t>
+  </si>
+  <si>
+    <t>33296.05</t>
+  </si>
+  <si>
+    <t>20830.98</t>
+  </si>
+  <si>
+    <t>4466.03</t>
+  </si>
+  <si>
+    <t>95.40</t>
+  </si>
+  <si>
+    <t>2457.02</t>
+  </si>
+  <si>
+    <t>979.80</t>
+  </si>
+  <si>
+    <t>1508.00</t>
+  </si>
+  <si>
+    <t>1312.71</t>
+  </si>
+  <si>
+    <t>791.00</t>
+  </si>
+  <si>
+    <t>3828.00</t>
+  </si>
+  <si>
+    <t>1516.00</t>
+  </si>
+  <si>
+    <t>1043.57</t>
+  </si>
+  <si>
+    <t>1941.28</t>
+  </si>
+  <si>
+    <t>2865.00</t>
+  </si>
+  <si>
+    <t>8425.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>25815.00</t>
+  </si>
+  <si>
+    <t>875.00</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>17890.00</t>
+  </si>
+  <si>
+    <t>2148.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>179.00</t>
+  </si>
+  <si>
+    <t>23055.00</t>
+  </si>
+  <si>
+    <t>34585.20</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>8540.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>11280.00</t>
+  </si>
+  <si>
+    <t>273830.58</t>
+  </si>
+  <si>
+    <t>3999.99</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>371897.61</t>
+  </si>
+  <si>
+    <t>59551.45</t>
+  </si>
+  <si>
+    <t>47.93</t>
+  </si>
+  <si>
+    <t>181.85</t>
+  </si>
+  <si>
+    <t>21294.95</t>
+  </si>
+  <si>
+    <t>85.32</t>
+  </si>
+  <si>
+    <t>777.80</t>
+  </si>
+  <si>
+    <t>5474.50</t>
+  </si>
+  <si>
+    <t>2607.98</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>4637.90</t>
+  </si>
+  <si>
+    <t>7665.00</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>1709.00</t>
+  </si>
+  <si>
+    <t>2008.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>3720.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>28341.90</t>
+  </si>
+  <si>
+    <t>242.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>9835.72</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>95.60</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>204999.75</t>
+  </si>
+  <si>
+    <t>88240.00</t>
+  </si>
+  <si>
+    <t>2375.00</t>
+  </si>
+  <si>
+    <t>6260.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>4360.00</t>
+  </si>
+  <si>
+    <t>3980.90</t>
+  </si>
+  <si>
+    <t>337590.00</t>
+  </si>
+  <si>
+    <t>3435.00</t>
+  </si>
+  <si>
+    <t>26278.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>2385.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>32400.00</t>
+  </si>
+  <si>
+    <t>538.00</t>
+  </si>
+  <si>
+    <t>918.23</t>
+  </si>
+  <si>
+    <t>87.36</t>
+  </si>
+  <si>
+    <t>1733.00</t>
+  </si>
+  <si>
+    <t>721.26</t>
+  </si>
+  <si>
+    <t>8156.78</t>
+  </si>
+  <si>
+    <t>242.50</t>
+  </si>
+  <si>
+    <t>10000.35</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>29124.00</t>
+  </si>
+  <si>
+    <t>11486.94</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>55158.18</t>
+  </si>
+  <si>
+    <t>3146.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>1105.00</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>10359.61</t>
+  </si>
+  <si>
+    <t>1862.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>24080.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>9674.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>2060.00</t>
+  </si>
+  <si>
+    <t>322.00</t>
+  </si>
+  <si>
+    <t>5110.00</t>
+  </si>
+  <si>
+    <t>4080.00</t>
+  </si>
+  <si>
+    <t>435.00</t>
+  </si>
+  <si>
+    <t>912.84</t>
+  </si>
+  <si>
+    <t>2718.80</t>
+  </si>
+  <si>
+    <t>1480.00</t>
+  </si>
+  <si>
+    <t>3332.96</t>
+  </si>
+  <si>
+    <t>1656.00</t>
+  </si>
+  <si>
+    <t>8593.80</t>
+  </si>
+  <si>
+    <t>6640.00</t>
+  </si>
+  <si>
+    <t>17640.00</t>
+  </si>
+  <si>
+    <t>28.98</t>
+  </si>
+  <si>
+    <t>1719.00</t>
+  </si>
+  <si>
+    <t>1171.15</t>
+  </si>
+  <si>
+    <t>1251.80</t>
+  </si>
+  <si>
+    <t>74125.00</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>205827.00</t>
+  </si>
+  <si>
+    <t>72015.00</t>
+  </si>
+  <si>
+    <t>6146.49</t>
+  </si>
+  <si>
+    <t>14506.30</t>
+  </si>
+  <si>
+    <t>2554.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>368225.89</t>
+  </si>
+  <si>
+    <t>3371.20</t>
+  </si>
+  <si>
+    <t>5082.97</t>
+  </si>
+  <si>
+    <t>42700.00</t>
+  </si>
+  <si>
+    <t>1785.20</t>
+  </si>
+  <si>
+    <t>777315.46</t>
+  </si>
+  <si>
+    <t>148986.00</t>
+  </si>
+  <si>
+    <t>179336.00</t>
+  </si>
+  <si>
+    <t>206612.22</t>
+  </si>
+  <si>
+    <t>185000.00</t>
+  </si>
+  <si>
+    <t>218700.00</t>
+  </si>
+  <si>
+    <t>424303.73</t>
+  </si>
+  <si>
+    <t>200000.00</t>
+  </si>
+  <si>
+    <t>40414.70</t>
+  </si>
+  <si>
+    <t>95677.00</t>
+  </si>
+  <si>
+    <t>54719.60</t>
+  </si>
+  <si>
+    <t>121781.25</t>
+  </si>
+  <si>
+    <t>340221.00</t>
+  </si>
+  <si>
+    <t>245952.00</t>
+  </si>
+  <si>
+    <t>44991.01</t>
+  </si>
+  <si>
+    <t>224748.00</t>
+  </si>
+  <si>
+    <t>249553.80</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>137948.00</t>
+  </si>
+  <si>
+    <t>400569.60</t>
+  </si>
+  <si>
+    <t>7820524.96</t>
+  </si>
+  <si>
+    <t>18310.00</t>
+  </si>
+  <si>
+    <t>507047.10</t>
+  </si>
+  <si>
+    <t>78000.00</t>
+  </si>
+  <si>
+    <t>11964.00</t>
+  </si>
+  <si>
+    <t>58430.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>108500.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>7450.00</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>18225.75</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>1783.54</t>
+  </si>
+  <si>
+    <t>384900.00</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>2658.00</t>
   </si>
 </sst>
 </file>
